--- a/results/robust_recourse_iterative/zero_factor.xlsx
+++ b/results/robust_recourse_iterative/zero_factor.xlsx
@@ -19,10 +19,12 @@
     <sheet name="25scen" sheetId="5" r:id="rId5"/>
     <sheet name="30scen" sheetId="6" r:id="rId6"/>
     <sheet name="Results" sheetId="7" r:id="rId7"/>
+    <sheet name="EEV" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_200iter_10scen_zero_factor" localSheetId="1">'10scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_15scen_zero_factor" localSheetId="2">'15scen'!$A$1:$K$201</definedName>
+    <definedName name="_200iter_1scen_zero_factor" localSheetId="7">EEV!$A$1:$K$201</definedName>
     <definedName name="_200iter_20scen_zero_factor" localSheetId="3">'20scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_25scen_zero_factor" localSheetId="4">'25scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_30scen_zero_factor" localSheetId="5">'30scen'!$A$1:$K$201</definedName>
@@ -73,7 +75,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="200iter_20scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="200iter_1scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_1scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="200iter_20scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_20scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -90,7 +109,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="200iter_25scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" name="200iter_25scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_25scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -107,7 +126,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="200iter_30scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="200iter_30scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_30scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -124,7 +143,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="200iter_5scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" name="200iter_5scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_5scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -145,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>infeasible count</t>
   </si>
@@ -338,26 +357,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$2:$A$7</c:f>
+              <c:f>Results!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -365,26 +387,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$B$2:$B$7</c:f>
+              <c:f>Results!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -668,68 +693,62 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$2:$A$12</c:f>
+              <c:f>Results!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$C$2:$C$12</c:f>
+              <c:f>Results!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>107.38080706576108</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>112.98603381344009</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>109.24483577734593</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>114.70206331416767</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>102.18561711095268</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>108.83808405590712</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>106.44874359669717</c:v>
                 </c:pt>
               </c:numCache>
@@ -2100,7 +2119,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_5scen_zero_factor" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_5scen_zero_factor" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2112,15 +2131,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_20scen_zero_factor" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_20scen_zero_factor" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_25scen_zero_factor" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_25scen_zero_factor" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_30scen_zero_factor" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_30scen_zero_factor" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_1scen_zero_factor" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44692,10 +44715,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44722,176 +44745,201 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>SUM(EEV!B:B)</f>
+        <v>208</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(EEV!C:C)</f>
+        <v>107.38080706576108</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(EEV!D:D)</f>
+        <v>200808.39155434782</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.STDEV.S(EEV!C:C)</f>
+        <v>14.450835889193092</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.STDEV.S(EEV!D:D)</f>
+        <v>29151.765163198528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>SUM('5scen'!B:B)</f>
         <v>27</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <f>AVERAGE('5scen'!C:C)</f>
         <v>112.98603381344009</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <f>AVERAGE('5scen'!D:D)</f>
         <v>221960.7879775567</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <f>_xlfn.STDEV.S('5scen'!C:C)</f>
         <v>3.7537537764523523</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <f>_xlfn.STDEV.S('5scen'!D:D)</f>
         <v>8562.6158398914031</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>SUM('10scen'!B:B)</f>
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>AVERAGE('10scen'!C:C)</f>
         <v>109.24483577734593</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <f>AVERAGE('10scen'!D:D)</f>
         <v>223046.25432510846</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <f>_xlfn.STDEV.S('10scen'!C:C)</f>
         <v>2.1248878959172131</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <f>_xlfn.STDEV.S('10scen'!D:D)</f>
         <v>10185.195459957347</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>SUM('15scen'!B:B)</f>
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f>AVERAGE('15scen'!C:C)</f>
         <v>114.70206331416767</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f>AVERAGE('15scen'!D:D)</f>
         <v>232797.26899678411</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f>_xlfn.STDEV.S('15scen'!C:C)</f>
         <v>3.2472303966624194</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f>_xlfn.STDEV.S('15scen'!D:D)</f>
         <v>10398.253249560859</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>SUM('20scen'!B:B)</f>
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f>AVERAGE('20scen'!C:C)</f>
         <v>102.18561711095268</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f>AVERAGE('20scen'!D:D)</f>
         <v>208272.98293521802</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f>_xlfn.STDEV.S('20scen'!C:C)</f>
         <v>1.0009787044204923</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f>_xlfn.STDEV.S('20scen'!D:D)</f>
         <v>6655.2831143688491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>SUM('25scen'!B:B)</f>
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>AVERAGE('25scen'!C:C)</f>
         <v>108.83808405590712</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>AVERAGE('25scen'!D:D)</f>
         <v>222203.23812802069</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f>_xlfn.STDEV.S('25scen'!C:C)</f>
         <v>2.3532224741421111</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f>_xlfn.STDEV.S('25scen'!D:D)</f>
         <v>7043.7827714362802</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>SUM('30scen'!B:B)</f>
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>AVERAGE('30scen'!C:C)</f>
         <v>106.44874359669717</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f>AVERAGE('30scen'!D:D)</f>
         <v>214943.90045487013</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f>_xlfn.STDEV.S('30scen'!C:C)</f>
         <v>1.3757847005708379</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f>_xlfn.STDEV.S('30scen'!D:D)</f>
         <v>6695.3282629107416</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>40</v>
-      </c>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>200</v>
       </c>
     </row>
@@ -44899,4 +44947,7055 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>123.955785457369</v>
+      </c>
+      <c r="D2">
+        <v>245032.33871965</v>
+      </c>
+      <c r="E2">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>53.235891229978598</v>
+      </c>
+      <c r="J2">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K2">
+        <v>45.047018759985498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>91.532965875665298</v>
+      </c>
+      <c r="D3">
+        <v>159391.000555545</v>
+      </c>
+      <c r="E3">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>62.556307627789302</v>
+      </c>
+      <c r="H3">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I3">
+        <v>51.808352400333803</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>108.282710390083</v>
+      </c>
+      <c r="D4">
+        <v>199451.46499741499</v>
+      </c>
+      <c r="E4">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>59.242195062535203</v>
+      </c>
+      <c r="J4">
+        <v>58.422620827064797</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>105.220735512385</v>
+      </c>
+      <c r="D5">
+        <v>182926.397551053</v>
+      </c>
+      <c r="E5">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>50.282490390831803</v>
+      </c>
+      <c r="J5">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>127.57561415802699</v>
+      </c>
+      <c r="D6">
+        <v>239939.96016150599</v>
+      </c>
+      <c r="E6">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>54.437429026944301</v>
+      </c>
+      <c r="J6">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K6">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>77.935458476311098</v>
+      </c>
+      <c r="D7">
+        <v>150176.70149437801</v>
+      </c>
+      <c r="E7">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>59.922408500631498</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>52.488847327808998</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>105.628308955081</v>
+      </c>
+      <c r="D8">
+        <v>200900.54785839599</v>
+      </c>
+      <c r="E8">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>63.133405454443903</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>54.1905440073919</v>
+      </c>
+      <c r="J8">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>119.018592515029</v>
+      </c>
+      <c r="D9">
+        <v>233086.078166013</v>
+      </c>
+      <c r="E9">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>38.196031298778102</v>
+      </c>
+      <c r="J9">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K9">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>106.319118923627</v>
+      </c>
+      <c r="D10">
+        <v>192730.14985070101</v>
+      </c>
+      <c r="E10">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>64.6552391811002</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>53.656199905516999</v>
+      </c>
+      <c r="J10">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>111.37113856489999</v>
+      </c>
+      <c r="D11">
+        <v>194709.26784930899</v>
+      </c>
+      <c r="E11">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J11">
+        <v>61.9397187559156</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>111.582850021762</v>
+      </c>
+      <c r="D12">
+        <v>209180.63643445101</v>
+      </c>
+      <c r="E12">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>54.199149280103697</v>
+      </c>
+      <c r="H12">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I12">
+        <v>51.938732264462601</v>
+      </c>
+      <c r="J12">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>108.127376649068</v>
+      </c>
+      <c r="D13">
+        <v>194603.196610807</v>
+      </c>
+      <c r="E13">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>64.590241130386204</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>57.1775719957582</v>
+      </c>
+      <c r="J13">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>79.2780707453324</v>
+      </c>
+      <c r="D14">
+        <v>145026.13534631801</v>
+      </c>
+      <c r="E14">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>55.118868400408601</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>126.193444808518</v>
+      </c>
+      <c r="D15">
+        <v>247459.72764174</v>
+      </c>
+      <c r="E15">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>55.2403250434648</v>
+      </c>
+      <c r="J15">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K15">
+        <v>49.806017737529899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>102.477126251961</v>
+      </c>
+      <c r="D16">
+        <v>196174.99493119799</v>
+      </c>
+      <c r="E16">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>59.1655968127249</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>52.860320873934803</v>
+      </c>
+      <c r="J16">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>89.309421967375698</v>
+      </c>
+      <c r="D17">
+        <v>159248.71297974401</v>
+      </c>
+      <c r="E17">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I17">
+        <v>51.554295927568603</v>
+      </c>
+      <c r="J17">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>98.715419634608907</v>
+      </c>
+      <c r="D18">
+        <v>192918.932793632</v>
+      </c>
+      <c r="E18">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>55.915676978496101</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>49.0585428712576</v>
+      </c>
+      <c r="J18">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>105.368694757269</v>
+      </c>
+      <c r="D19">
+        <v>193188.321569992</v>
+      </c>
+      <c r="E19">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>63.2428961983845</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>53.563255349582697</v>
+      </c>
+      <c r="J19">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>114.81307521993899</v>
+      </c>
+      <c r="D20">
+        <v>214008.32705289699</v>
+      </c>
+      <c r="E20">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>61.255451657731903</v>
+      </c>
+      <c r="H20">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I20">
+        <v>50.578378556055704</v>
+      </c>
+      <c r="J20">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>107.789877465421</v>
+      </c>
+      <c r="D21">
+        <v>187007.76534169199</v>
+      </c>
+      <c r="E21">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>55.173368261633797</v>
+      </c>
+      <c r="J21">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>124.16705773216</v>
+      </c>
+      <c r="D22">
+        <v>246143.86373559799</v>
+      </c>
+      <c r="E22">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>51.282884364088801</v>
+      </c>
+      <c r="J22">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K22">
+        <v>50.011801081461599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>126.827285818386</v>
+      </c>
+      <c r="D23">
+        <v>243725.68174413001</v>
+      </c>
+      <c r="E23">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>53.012835686695901</v>
+      </c>
+      <c r="J23">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K23">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>103.45069904163201</v>
+      </c>
+      <c r="D24">
+        <v>188055.612294958</v>
+      </c>
+      <c r="E24">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>55.15322703663</v>
+      </c>
+      <c r="J24">
+        <v>51.594440562454203</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D25">
+        <v>201276.66841088899</v>
+      </c>
+      <c r="E25">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>59.999999999999901</v>
+      </c>
+      <c r="J25">
+        <v>62.606092987060599</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>114.702449059953</v>
+      </c>
+      <c r="D26">
+        <v>207031.54903067701</v>
+      </c>
+      <c r="E26">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>60.025708985330802</v>
+      </c>
+      <c r="H26">
+        <v>31.819195913065101</v>
+      </c>
+      <c r="I26">
+        <v>51.138768121894998</v>
+      </c>
+      <c r="J26">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>102.605771584663</v>
+      </c>
+      <c r="D27">
+        <v>187977.559049968</v>
+      </c>
+      <c r="E27">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>62.931970755890497</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>48.690852081842799</v>
+      </c>
+      <c r="J27">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>101.195648987032</v>
+      </c>
+      <c r="D28">
+        <v>190642.650450115</v>
+      </c>
+      <c r="E28">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>44.890961565135903</v>
+      </c>
+      <c r="J28">
+        <v>59.620929664385699</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>130.22964267297399</v>
+      </c>
+      <c r="D29">
+        <v>243502.752160656</v>
+      </c>
+      <c r="E29">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J29">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K29">
+        <v>50.513259405962202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>104.879803679026</v>
+      </c>
+      <c r="D30">
+        <v>196712.49348108401</v>
+      </c>
+      <c r="E30">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>63.047156672575802</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>52.870429435262402</v>
+      </c>
+      <c r="J30">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>113.28424042920599</v>
+      </c>
+      <c r="D31">
+        <v>211442.535177593</v>
+      </c>
+      <c r="E31">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>58.119492943475898</v>
+      </c>
+      <c r="H31">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I31">
+        <v>51.133535198763802</v>
+      </c>
+      <c r="J31">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>125.933744677174</v>
+      </c>
+      <c r="D32">
+        <v>235271.345896021</v>
+      </c>
+      <c r="E32">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>51.311800604130802</v>
+      </c>
+      <c r="J32">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K32">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>97.520157652863105</v>
+      </c>
+      <c r="D33">
+        <v>199531.30314381499</v>
+      </c>
+      <c r="E33">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>52.790632952508403</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>94.394376228654707</v>
+      </c>
+      <c r="D34">
+        <v>194475.92416830501</v>
+      </c>
+      <c r="E34">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>46.239239934200498</v>
+      </c>
+      <c r="J34">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K34">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>138.223649255813</v>
+      </c>
+      <c r="D35">
+        <v>242813.41794188999</v>
+      </c>
+      <c r="E35">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H35">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I35">
+        <v>51.328667892564297</v>
+      </c>
+      <c r="J35">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K35">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>107.930051113075</v>
+      </c>
+      <c r="D36">
+        <v>188842.002993498</v>
+      </c>
+      <c r="E36">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>55.440216962061697</v>
+      </c>
+      <c r="J36">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>73.785832340563303</v>
+      </c>
+      <c r="D37">
+        <v>142176.934557559</v>
+      </c>
+      <c r="E37">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>45.414794119939202</v>
+      </c>
+      <c r="J37">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>81.115332933168702</v>
+      </c>
+      <c r="D38">
+        <v>142302.323449516</v>
+      </c>
+      <c r="E38">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>63.599725562111097</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>54.087695269823598</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>104.689919849289</v>
+      </c>
+      <c r="D39">
+        <v>200167.77707738499</v>
+      </c>
+      <c r="E39">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>59.613804264296299</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>56.610457652144198</v>
+      </c>
+      <c r="J39">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D40">
+        <v>194047.70835289601</v>
+      </c>
+      <c r="E40">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>125.386546530709</v>
+      </c>
+      <c r="D41">
+        <v>237530.83190048899</v>
+      </c>
+      <c r="E41">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>50.270098995417399</v>
+      </c>
+      <c r="J41">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K41">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>101.742860186394</v>
+      </c>
+      <c r="D42">
+        <v>203521.11073381</v>
+      </c>
+      <c r="E42">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>56.556985026506901</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>54.153481269470603</v>
+      </c>
+      <c r="J42">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>125.244665527148</v>
+      </c>
+      <c r="D43">
+        <v>239160.739333873</v>
+      </c>
+      <c r="E43">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K43">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>116.565512575206</v>
+      </c>
+      <c r="D44">
+        <v>219282.125828702</v>
+      </c>
+      <c r="E44">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>63.639307341861297</v>
+      </c>
+      <c r="H44">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I44">
+        <v>51.017465601178202</v>
+      </c>
+      <c r="J44">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>104.88142523705299</v>
+      </c>
+      <c r="D45">
+        <v>196372.35223774301</v>
+      </c>
+      <c r="E45">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>62.181248220325699</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>53.9258294131848</v>
+      </c>
+      <c r="J45">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>123.60757880949799</v>
+      </c>
+      <c r="D46">
+        <v>248166.08946021201</v>
+      </c>
+      <c r="E46">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>50.778526817270297</v>
+      </c>
+      <c r="J46">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K46">
+        <v>48.833461077921797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>125.255507523844</v>
+      </c>
+      <c r="D47">
+        <v>235602.47078703399</v>
+      </c>
+      <c r="E47">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>50.020639918961599</v>
+      </c>
+      <c r="J47">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K47">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>99.096388626838902</v>
+      </c>
+      <c r="D48">
+        <v>197137.969438486</v>
+      </c>
+      <c r="E48">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>56.480991879292098</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>49.199602646796102</v>
+      </c>
+      <c r="J48">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>81.086985148885304</v>
+      </c>
+      <c r="D49">
+        <v>145525.86378763101</v>
+      </c>
+      <c r="E49">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>56.043613403222999</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>62.529779238493397</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>105.27557599013301</v>
+      </c>
+      <c r="D50">
+        <v>189000.699849317</v>
+      </c>
+      <c r="E50">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>65.146826005547695</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>51.072195298102201</v>
+      </c>
+      <c r="J50">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>75.776814157169895</v>
+      </c>
+      <c r="D51">
+        <v>142302.323449519</v>
+      </c>
+      <c r="E51">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>50.030819891900997</v>
+      </c>
+      <c r="J51">
+        <v>61.458035562520202</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>122.746362537219</v>
+      </c>
+      <c r="D52">
+        <v>245653.35238894701</v>
+      </c>
+      <c r="E52">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>45.278305253373098</v>
+      </c>
+      <c r="J52">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K52">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>80.0034975594033</v>
+      </c>
+      <c r="D53">
+        <v>149984.71276367101</v>
+      </c>
+      <c r="E53">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>63.049917579204397</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>52.639258692535002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>129.11794386042001</v>
+      </c>
+      <c r="D54">
+        <v>248133.142126322</v>
+      </c>
+      <c r="E54">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J54">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K54">
+        <v>46.256941134570397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>79.526659947949398</v>
+      </c>
+      <c r="D55">
+        <v>142302.323449516</v>
+      </c>
+      <c r="E55">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>58.453611769328802</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>57.033195632146601</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>91.469828537846396</v>
+      </c>
+      <c r="D56">
+        <v>195077.68748149401</v>
+      </c>
+      <c r="E56">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>51.613068903858199</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>39.766310701250497</v>
+      </c>
+      <c r="J56">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>92.842602467702505</v>
+      </c>
+      <c r="D57">
+        <v>189589.07076811299</v>
+      </c>
+      <c r="E57">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>43.306448337434702</v>
+      </c>
+      <c r="J57">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K57">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>107.13579058469099</v>
+      </c>
+      <c r="D58">
+        <v>187911.86347255899</v>
+      </c>
+      <c r="E58">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>53.928182472362501</v>
+      </c>
+      <c r="J58">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>117.89186254637301</v>
+      </c>
+      <c r="D59">
+        <v>204031.33085560799</v>
+      </c>
+      <c r="E59">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H59">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I59">
+        <v>51.025091213965602</v>
+      </c>
+      <c r="J59">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>121.315704959689</v>
+      </c>
+      <c r="D60">
+        <v>248809.88200813299</v>
+      </c>
+      <c r="E60">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>47.135337459659397</v>
+      </c>
+      <c r="J60">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K60">
+        <v>47.3584823085558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>105.978217298391</v>
+      </c>
+      <c r="D61">
+        <v>182517.06201927201</v>
+      </c>
+      <c r="E61">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>51.724509155242799</v>
+      </c>
+      <c r="J61">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>103.932206637473</v>
+      </c>
+      <c r="D62">
+        <v>195816.82642143301</v>
+      </c>
+      <c r="E62">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>59.365853749650398</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>55.423778318097597</v>
+      </c>
+      <c r="J62">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>102.959626042552</v>
+      </c>
+      <c r="D63">
+        <v>196132.32895648299</v>
+      </c>
+      <c r="E63">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>53.134883540873901</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>109.201748969617</v>
+      </c>
+      <c r="D64">
+        <v>199095.731879789</v>
+      </c>
+      <c r="E64">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>63.950758457736001</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>59.999999999999901</v>
+      </c>
+      <c r="J64">
+        <v>62.606092986950401</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>107.109058493859</v>
+      </c>
+      <c r="D65">
+        <v>194635.13440792201</v>
+      </c>
+      <c r="E65">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>55.371547817006999</v>
+      </c>
+      <c r="J65">
+        <v>60.609308129203399</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>82.190363434648802</v>
+      </c>
+      <c r="D66">
+        <v>149075.04034030801</v>
+      </c>
+      <c r="E66">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>65.134652902140303</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>54.268879863317302</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>105.101852926315</v>
+      </c>
+      <c r="D67">
+        <v>191509.221554952</v>
+      </c>
+      <c r="E67">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>61.588477430060401</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>55.065834673035198</v>
+      </c>
+      <c r="J67">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>128.45389023375901</v>
+      </c>
+      <c r="D68">
+        <v>249933.99025621999</v>
+      </c>
+      <c r="E68">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>60</v>
+      </c>
+      <c r="J68">
+        <v>62.606092987060698</v>
+      </c>
+      <c r="K68">
+        <v>48.842859814492499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>129.27924277098401</v>
+      </c>
+      <c r="D69">
+        <v>242514.49017017399</v>
+      </c>
+      <c r="E69">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>61.093704581508902</v>
+      </c>
+      <c r="J69">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K69">
+        <v>49.887022870042003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>107.46071956201</v>
+      </c>
+      <c r="D70">
+        <v>200874.95548070499</v>
+      </c>
+      <c r="E70">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>55.600318648608301</v>
+      </c>
+      <c r="J70">
+        <v>61.198201128866302</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>101.388514534919</v>
+      </c>
+      <c r="D71">
+        <v>194444.57611508999</v>
+      </c>
+      <c r="E71">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>59.929407870511</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>50</v>
+      </c>
+      <c r="J71">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>110.668234512947</v>
+      </c>
+      <c r="D72">
+        <v>183089.17688054999</v>
+      </c>
+      <c r="E72">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>60.6634131663901</v>
+      </c>
+      <c r="J72">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>131.16432520375699</v>
+      </c>
+      <c r="D73">
+        <v>240353.846651042</v>
+      </c>
+      <c r="E73">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>61.289701088827002</v>
+      </c>
+      <c r="J73">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K73">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>128.169988267349</v>
+      </c>
+      <c r="D74">
+        <v>245750.87318845899</v>
+      </c>
+      <c r="E74">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>59.404821820489197</v>
+      </c>
+      <c r="J74">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K74">
+        <v>48.958308352797403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>104.295306391594</v>
+      </c>
+      <c r="D75">
+        <v>186435.20298086101</v>
+      </c>
+      <c r="E75">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>64.154113137142204</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>50.412469857900497</v>
+      </c>
+      <c r="J75">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>97.909338309988001</v>
+      </c>
+      <c r="D76">
+        <v>191920.22822540801</v>
+      </c>
+      <c r="E76">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>40.958263885062998</v>
+      </c>
+      <c r="J76">
+        <v>56.554285057189396</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>105.216578858931</v>
+      </c>
+      <c r="D77">
+        <v>189738.65467852101</v>
+      </c>
+      <c r="E77">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>50.274577365873803</v>
+      </c>
+      <c r="J77">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>125.244665527148</v>
+      </c>
+      <c r="D78">
+        <v>232791.185485233</v>
+      </c>
+      <c r="E78">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K78">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D79">
+        <v>192543.617532542</v>
+      </c>
+      <c r="E79">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>60</v>
+      </c>
+      <c r="J79">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>109.48378288792701</v>
+      </c>
+      <c r="D80">
+        <v>215713.840914436</v>
+      </c>
+      <c r="E80">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I80">
+        <v>51.5581809887953</v>
+      </c>
+      <c r="J80">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K80">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>97.251539914043704</v>
+      </c>
+      <c r="D81">
+        <v>193514.010464219</v>
+      </c>
+      <c r="E81">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>54.006322416862197</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>48.247297355943701</v>
+      </c>
+      <c r="J81">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>106.34289591414699</v>
+      </c>
+      <c r="D82">
+        <v>182434.49127007401</v>
+      </c>
+      <c r="E82">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>52.418748167474099</v>
+      </c>
+      <c r="J82">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>104.544597441986</v>
+      </c>
+      <c r="D83">
+        <v>192580.116398015</v>
+      </c>
+      <c r="E83">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>49.079295045412401</v>
+      </c>
+      <c r="J83">
+        <v>62.502828805904002</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>134.91239621350701</v>
+      </c>
+      <c r="D84">
+        <v>248359.743144231</v>
+      </c>
+      <c r="E84">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H84">
+        <v>31.363896051170101</v>
+      </c>
+      <c r="I84">
+        <v>50.877323635814001</v>
+      </c>
+      <c r="J84">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K84">
+        <v>44.053486940332199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>116.81424507206199</v>
+      </c>
+      <c r="D85">
+        <v>208655.80784256599</v>
+      </c>
+      <c r="E85">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>65.710737519697901</v>
+      </c>
+      <c r="H85">
+        <v>31.819195913065101</v>
+      </c>
+      <c r="I85">
+        <v>50.345462131861098</v>
+      </c>
+      <c r="J85">
+        <v>59.806109183825697</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>128.46712584281201</v>
+      </c>
+      <c r="D86">
+        <v>239098.44787585901</v>
+      </c>
+      <c r="E86">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>56.134600631463996</v>
+      </c>
+      <c r="J86">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K86">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>103.49323589719999</v>
+      </c>
+      <c r="D87">
+        <v>194411.82346021899</v>
+      </c>
+      <c r="E87">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>65.272415269727404</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>47.544380374083403</v>
+      </c>
+      <c r="J87">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>127.23051653078601</v>
+      </c>
+      <c r="D88">
+        <v>234782.59228693199</v>
+      </c>
+      <c r="E88">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>53.780466360344697</v>
+      </c>
+      <c r="J88">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K88">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>98.646120018451498</v>
+      </c>
+      <c r="D89">
+        <v>204478.55444099399</v>
+      </c>
+      <c r="E89">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>58.386199192166401</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>46.397430159987799</v>
+      </c>
+      <c r="J89">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>130.49759152714799</v>
+      </c>
+      <c r="D90">
+        <v>235507.952638816</v>
+      </c>
+      <c r="E90">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>60</v>
+      </c>
+      <c r="J90">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K90">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>97.570998735314106</v>
+      </c>
+      <c r="D91">
+        <v>191490.83629342201</v>
+      </c>
+      <c r="E91">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>52.259238198109301</v>
+      </c>
+      <c r="J91">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K91">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>105.283255862319</v>
+      </c>
+      <c r="D92">
+        <v>204025.579433932</v>
+      </c>
+      <c r="E92">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>59.800723075369604</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>57.547170852317102</v>
+      </c>
+      <c r="J92">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>105.75597852220299</v>
+      </c>
+      <c r="D93">
+        <v>193208.15815197199</v>
+      </c>
+      <c r="E93">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>51.351238820298697</v>
+      </c>
+      <c r="J93">
+        <v>62.539537077230399</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>84.5977499176484</v>
+      </c>
+      <c r="D94">
+        <v>145969.894886811</v>
+      </c>
+      <c r="E94">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>64.189862190299394</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>59.999999999999901</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>110.723890325992</v>
+      </c>
+      <c r="D95">
+        <v>217374.58905289599</v>
+      </c>
+      <c r="E95">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>53.769655242802799</v>
+      </c>
+      <c r="H95">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I95">
+        <v>50.746585991181298</v>
+      </c>
+      <c r="J95">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>118.341695511385</v>
+      </c>
+      <c r="D96">
+        <v>240453.87698949801</v>
+      </c>
+      <c r="E96">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>36.889982264814002</v>
+      </c>
+      <c r="J96">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K96">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>97.784866075482</v>
+      </c>
+      <c r="D97">
+        <v>196333.24738644899</v>
+      </c>
+      <c r="E97">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>52.768969221189799</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>50.526273467108801</v>
+      </c>
+      <c r="J97">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>105.363705073136</v>
+      </c>
+      <c r="D98">
+        <v>200811.720207734</v>
+      </c>
+      <c r="E98">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>56.936961096174599</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>60.665052434041201</v>
+      </c>
+      <c r="J98">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>102.04038322305399</v>
+      </c>
+      <c r="D99">
+        <v>201272.149230323</v>
+      </c>
+      <c r="E99">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>60.7114618804016</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>50.303523161199998</v>
+      </c>
+      <c r="J99">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>102.91377762726999</v>
+      </c>
+      <c r="D100">
+        <v>193981.616572245</v>
+      </c>
+      <c r="E100">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>55.896715703889903</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>57.063676373907398</v>
+      </c>
+      <c r="J100">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>79.807848888175599</v>
+      </c>
+      <c r="D101">
+        <v>140001.113286696</v>
+      </c>
+      <c r="E101">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>56.845577848620898</v>
+      </c>
+      <c r="J101">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>110.155558867781</v>
+      </c>
+      <c r="D102">
+        <v>188317.08018349399</v>
+      </c>
+      <c r="E102">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J102">
+        <v>58.847368779941299</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>110.982763814656</v>
+      </c>
+      <c r="D103">
+        <v>202302.90905086399</v>
+      </c>
+      <c r="E103">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>61.2718251862321</v>
+      </c>
+      <c r="J103">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>103.945994044957</v>
+      </c>
+      <c r="D104">
+        <v>198573.33988765199</v>
+      </c>
+      <c r="E104">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>50</v>
+      </c>
+      <c r="J104">
+        <v>59.740733689324699</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>103.8662767556</v>
+      </c>
+      <c r="D105">
+        <v>194995.822933647</v>
+      </c>
+      <c r="E105">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>61.498339506010801</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>52.823209155943999</v>
+      </c>
+      <c r="J105">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>99.916724712935107</v>
+      </c>
+      <c r="D106">
+        <v>192729.53451969201</v>
+      </c>
+      <c r="E106">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>56.724798873475699</v>
+      </c>
+      <c r="J106">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K106">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>104.940566162607</v>
+      </c>
+      <c r="D107">
+        <v>194524.22386410701</v>
+      </c>
+      <c r="E107">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>56.790566321518398</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>59.999999999999602</v>
+      </c>
+      <c r="J107">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>128.50279238803699</v>
+      </c>
+      <c r="D108">
+        <v>243430.712844297</v>
+      </c>
+      <c r="E108">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>58.144747099639297</v>
+      </c>
+      <c r="J108">
+        <v>62.606092987060599</v>
+      </c>
+      <c r="K108">
+        <v>52.098417227412902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>112.832387480322</v>
+      </c>
+      <c r="D109">
+        <v>213312.57501500999</v>
+      </c>
+      <c r="E109">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>57.051495000770501</v>
+      </c>
+      <c r="H109">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I109">
+        <v>51.375064218414799</v>
+      </c>
+      <c r="J109">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>125.59318641704699</v>
+      </c>
+      <c r="D110">
+        <v>245075.257044044</v>
+      </c>
+      <c r="E110">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>50.663479534832298</v>
+      </c>
+      <c r="J110">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K110">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>106.18187265211699</v>
+      </c>
+      <c r="D111">
+        <v>188207.70557705901</v>
+      </c>
+      <c r="E111">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>52.1122080372105</v>
+      </c>
+      <c r="J111">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>107.711959926142</v>
+      </c>
+      <c r="D112">
+        <v>203930.762331807</v>
+      </c>
+      <c r="E112">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>61.750862809613203</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>59.8373555757303</v>
+      </c>
+      <c r="J112">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>123.34901909576401</v>
+      </c>
+      <c r="D113">
+        <v>245445.43486296799</v>
+      </c>
+      <c r="E113">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>50</v>
+      </c>
+      <c r="J113">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K113">
+        <v>49.437580937098303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>80.262305271211204</v>
+      </c>
+      <c r="D114">
+        <v>142245.88299375999</v>
+      </c>
+      <c r="E114">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>57.710726878010703</v>
+      </c>
+      <c r="J114">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>104.983021743536</v>
+      </c>
+      <c r="D115">
+        <v>198489.79950811699</v>
+      </c>
+      <c r="E115">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="J115">
+        <v>62.378859833075701</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>80.566483107952294</v>
+      </c>
+      <c r="D116">
+        <v>147713.81266686201</v>
+      </c>
+      <c r="E116">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>64.072536802361796</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>52.468255796208403</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>105.07234540051</v>
+      </c>
+      <c r="D117">
+        <v>191669.067851361</v>
+      </c>
+      <c r="E117">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>50</v>
+      </c>
+      <c r="J117">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>101.044773620686</v>
+      </c>
+      <c r="D118">
+        <v>190403.49395012201</v>
+      </c>
+      <c r="E118">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>59.295058690319799</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>50</v>
+      </c>
+      <c r="J118">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>76.293099783480997</v>
+      </c>
+      <c r="D119">
+        <v>142302.323449516</v>
+      </c>
+      <c r="E119">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>57.600539684467101</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>51.757473571059798</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>109.091328590971</v>
+      </c>
+      <c r="D120">
+        <v>198398.342178258</v>
+      </c>
+      <c r="E120">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>61.729118222104901</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J120">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>106.657368966297</v>
+      </c>
+      <c r="D121">
+        <v>191178.42675324299</v>
+      </c>
+      <c r="E121">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>59.938539285259097</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>60.021239829178697</v>
+      </c>
+      <c r="J121">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>102.97792474474799</v>
+      </c>
+      <c r="D122">
+        <v>199719.56777644399</v>
+      </c>
+      <c r="E122">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>61.130797116796401</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>51.5787160566137</v>
+      </c>
+      <c r="J122">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>82.772657403024894</v>
+      </c>
+      <c r="D123">
+        <v>141253.70874644801</v>
+      </c>
+      <c r="E123">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J123">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>95.313843829505402</v>
+      </c>
+      <c r="D124">
+        <v>195129.63927548999</v>
+      </c>
+      <c r="E124">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>60.515347142003797</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>37.779587871616798</v>
+      </c>
+      <c r="J124">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>127.657945275119</v>
+      </c>
+      <c r="D125">
+        <v>239142.331420323</v>
+      </c>
+      <c r="E125">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>54.594162849373198</v>
+      </c>
+      <c r="J125">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K125">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>103.849985068508</v>
+      </c>
+      <c r="D126">
+        <v>202069.25986922099</v>
+      </c>
+      <c r="E126">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>47.6897868747864</v>
+      </c>
+      <c r="J126">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>105.685183373104</v>
+      </c>
+      <c r="D127">
+        <v>202599.97714007599</v>
+      </c>
+      <c r="E127">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>60.6042361267939</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>57.3724408167202</v>
+      </c>
+      <c r="J127">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>103.645408187168</v>
+      </c>
+      <c r="D128">
+        <v>199880.23318360699</v>
+      </c>
+      <c r="E128">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>56.3606516264432</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>57.977896606095698</v>
+      </c>
+      <c r="J128">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>125.446565115147</v>
+      </c>
+      <c r="D129">
+        <v>236167.02072887999</v>
+      </c>
+      <c r="E129">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>50.3843564291574</v>
+      </c>
+      <c r="J129">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K129">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>83.282304982557804</v>
+      </c>
+      <c r="D130">
+        <v>146481.03305979201</v>
+      </c>
+      <c r="E130">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>55.6475113267457</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>125.214543192506</v>
+      </c>
+      <c r="D131">
+        <v>247135.17260555501</v>
+      </c>
+      <c r="E131">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>50</v>
+      </c>
+      <c r="J131">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K131">
+        <v>54.923738639064197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>80.963759683396404</v>
+      </c>
+      <c r="D132">
+        <v>142302.32344951699</v>
+      </c>
+      <c r="E132">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>65.080329174085605</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>51.999811212663197</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>80.234187971219399</v>
+      </c>
+      <c r="D133">
+        <v>139288.038079171</v>
+      </c>
+      <c r="E133">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>57.6571999484636</v>
+      </c>
+      <c r="J133">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>126.66784044072899</v>
+      </c>
+      <c r="D134">
+        <v>239329.15799692401</v>
+      </c>
+      <c r="E134">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>52.709299376348802</v>
+      </c>
+      <c r="J134">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K134">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>127.407968476731</v>
+      </c>
+      <c r="D135">
+        <v>234747.68309862001</v>
+      </c>
+      <c r="E135">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>54.118281791105197</v>
+      </c>
+      <c r="J135">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K135">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>129.365697340552</v>
+      </c>
+      <c r="D136">
+        <v>243718.710145711</v>
+      </c>
+      <c r="E136">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>58.394623591724503</v>
+      </c>
+      <c r="J136">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K136">
+        <v>54.186168327639301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>87.854273389205304</v>
+      </c>
+      <c r="D137">
+        <v>164743.48526199901</v>
+      </c>
+      <c r="E137">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I137">
+        <v>51.417622013906701</v>
+      </c>
+      <c r="J137">
+        <v>59.086934893835</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D138">
+        <v>177636.25335266101</v>
+      </c>
+      <c r="E138">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>60</v>
+      </c>
+      <c r="J138">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>99.194088404170898</v>
+      </c>
+      <c r="D139">
+        <v>203251.188586598</v>
+      </c>
+      <c r="E139">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>57.455167617657501</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>48.386567521607702</v>
+      </c>
+      <c r="J139">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>108.199101147728</v>
+      </c>
+      <c r="D140">
+        <v>193267.08416688</v>
+      </c>
+      <c r="E140">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>65.122875420968398</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>56.666819236897801</v>
+      </c>
+      <c r="J140">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>127.092727741486</v>
+      </c>
+      <c r="D141">
+        <v>242302.214068751</v>
+      </c>
+      <c r="E141">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>53.518157716931903</v>
+      </c>
+      <c r="J141">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K141">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>101.036919101968</v>
+      </c>
+      <c r="D142">
+        <v>192526.732993582</v>
+      </c>
+      <c r="E142">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>54.836638424257004</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>54.584250210518803</v>
+      </c>
+      <c r="J142">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>102.469640052098</v>
+      </c>
+      <c r="D143">
+        <v>198309.255027729</v>
+      </c>
+      <c r="E143">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>61.633643202854103</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>50</v>
+      </c>
+      <c r="J143">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>110.53849945963201</v>
+      </c>
+      <c r="D144">
+        <v>196374.63285370401</v>
+      </c>
+      <c r="E144">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>63.996087138781803</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J144">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>125.41298800278</v>
+      </c>
+      <c r="D145">
+        <v>233816.64043427201</v>
+      </c>
+      <c r="E145">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>50.320435649828497</v>
+      </c>
+      <c r="J145">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K145">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>116.79480365779099</v>
+      </c>
+      <c r="D146">
+        <v>216320.922278196</v>
+      </c>
+      <c r="E146">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>63.6097175026092</v>
+      </c>
+      <c r="H146">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I146">
+        <v>51.489926902855203</v>
+      </c>
+      <c r="J146">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>104.463261551005</v>
+      </c>
+      <c r="D147">
+        <v>197471.08399768599</v>
+      </c>
+      <c r="E147">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>57.487091097586799</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>58.372835984720297</v>
+      </c>
+      <c r="J147">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>104.123718230859</v>
+      </c>
+      <c r="D148">
+        <v>197264.701336258</v>
+      </c>
+      <c r="E148">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>55.283132104671402</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>59.999999999999901</v>
+      </c>
+      <c r="J148">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>102.875267564118</v>
+      </c>
+      <c r="D149">
+        <v>188308.18193033399</v>
+      </c>
+      <c r="E149">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>45.847608989047899</v>
+      </c>
+      <c r="J149">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>131.805405428603</v>
+      </c>
+      <c r="D150">
+        <v>234063.213678317</v>
+      </c>
+      <c r="E150">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J150">
+        <v>62.606092987062098</v>
+      </c>
+      <c r="K150">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>103.901943720191</v>
+      </c>
+      <c r="D151">
+        <v>197213.606037055</v>
+      </c>
+      <c r="E151">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>49.583517695454198</v>
+      </c>
+      <c r="J151">
+        <v>60.1892673946302</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>102.873654058136</v>
+      </c>
+      <c r="D152">
+        <v>203117.07134044799</v>
+      </c>
+      <c r="E152">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>55.804027794942002</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>57.082907794434199</v>
+      </c>
+      <c r="J152">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>104.78879025249699</v>
+      </c>
+      <c r="D153">
+        <v>198279.32024246699</v>
+      </c>
+      <c r="E153">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>62.3129031671684</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>53.589483732977797</v>
+      </c>
+      <c r="J153">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>103.27701983797201</v>
+      </c>
+      <c r="D154">
+        <v>194124.07380024099</v>
+      </c>
+      <c r="E154">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>61.807186039147297</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>51.326108138922599</v>
+      </c>
+      <c r="J154">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>97.806281685662498</v>
+      </c>
+      <c r="D155">
+        <v>193543.61083418</v>
+      </c>
+      <c r="E155">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>55.602289712826703</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>47.661257486458503</v>
+      </c>
+      <c r="J155">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>98.642933871030095</v>
+      </c>
+      <c r="D156">
+        <v>195342.071046528</v>
+      </c>
+      <c r="E156">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>53.968203714858099</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>50.92267544029</v>
+      </c>
+      <c r="J156">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>73.635699080791895</v>
+      </c>
+      <c r="D157">
+        <v>142302.323449516</v>
+      </c>
+      <c r="E157">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>53.035285407804402</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>51.407987788953498</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>101.550885937272</v>
+      </c>
+      <c r="D158">
+        <v>193147.220426432</v>
+      </c>
+      <c r="E158">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>55.9264307298182</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>54.438484894027503</v>
+      </c>
+      <c r="J158">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>131.40739391203601</v>
+      </c>
+      <c r="D159">
+        <v>239060.74058870299</v>
+      </c>
+      <c r="E159">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>61.759882795145998</v>
+      </c>
+      <c r="J159">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K159">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>110.156577757218</v>
+      </c>
+      <c r="D160">
+        <v>192443.249313448</v>
+      </c>
+      <c r="E160">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>63.3978131915053</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J160">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>98.556475467631998</v>
+      </c>
+      <c r="D161">
+        <v>192965.54209411499</v>
+      </c>
+      <c r="E161">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>54.703083082812597</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>50</v>
+      </c>
+      <c r="J161">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>105.95461844746499</v>
+      </c>
+      <c r="D162">
+        <v>194069.11758852401</v>
+      </c>
+      <c r="E162">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>51.679584001287999</v>
+      </c>
+      <c r="J162">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>80.415753093552794</v>
+      </c>
+      <c r="D163">
+        <v>142302.323449516</v>
+      </c>
+      <c r="E163">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>64.322872202858406</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>51.877085698075597</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>123.870252056773</v>
+      </c>
+      <c r="D164">
+        <v>248876.25462959101</v>
+      </c>
+      <c r="E164">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>51.854801049669803</v>
+      </c>
+      <c r="J164">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K164">
+        <v>47.617604045535003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>102.701919275639</v>
+      </c>
+      <c r="D165">
+        <v>193473.85302081701</v>
+      </c>
+      <c r="E165">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>45.519987517053899</v>
+      </c>
+      <c r="J165">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>106.19331075216201</v>
+      </c>
+      <c r="D166">
+        <v>190664.574362685</v>
+      </c>
+      <c r="E166">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>52.133982758662299</v>
+      </c>
+      <c r="J166">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>102.94497752966301</v>
+      </c>
+      <c r="D167">
+        <v>200240.524209828</v>
+      </c>
+      <c r="E167">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J167">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K167">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>106.122605955984</v>
+      </c>
+      <c r="D168">
+        <v>201983.26274539399</v>
+      </c>
+      <c r="E168">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>56.848642222563598</v>
+      </c>
+      <c r="J168">
+        <v>56.125988978970597</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>105.793227282027</v>
+      </c>
+      <c r="D169">
+        <v>194325.307737811</v>
+      </c>
+      <c r="E169">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>58.364091205198498</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>60</v>
+      </c>
+      <c r="J169">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>133.77786869645101</v>
+      </c>
+      <c r="D170">
+        <v>246147.63151201399</v>
+      </c>
+      <c r="E170">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H170">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I170">
+        <v>50.507356494886899</v>
+      </c>
+      <c r="J170">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K170">
+        <v>40.926959979733198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>110.042850678829</v>
+      </c>
+      <c r="D171">
+        <v>184636.71483338301</v>
+      </c>
+      <c r="E171">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>59.462355415475002</v>
+      </c>
+      <c r="J171">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>107.434627303455</v>
+      </c>
+      <c r="D172">
+        <v>191034.11293517999</v>
+      </c>
+      <c r="E172">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>56.418004892416299</v>
+      </c>
+      <c r="J172">
+        <v>60.039143785494801</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>103.513376573882</v>
+      </c>
+      <c r="D173">
+        <v>184593.86769821201</v>
+      </c>
+      <c r="E173">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>47.0536100110712</v>
+      </c>
+      <c r="J173">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>106.540539664793</v>
+      </c>
+      <c r="D174">
+        <v>191327.78273521</v>
+      </c>
+      <c r="E174">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>52.795002755194901</v>
+      </c>
+      <c r="J174">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>74.099460618791696</v>
+      </c>
+      <c r="D175">
+        <v>146357.98121948799</v>
+      </c>
+      <c r="E175">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>46.007539275220097</v>
+      </c>
+      <c r="J175">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>121.841351639477</v>
+      </c>
+      <c r="D176">
+        <v>227420.27099288901</v>
+      </c>
+      <c r="E176">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>43.567870122513597</v>
+      </c>
+      <c r="J176">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K176">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>107.918808229253</v>
+      </c>
+      <c r="D177">
+        <v>196982.83576494601</v>
+      </c>
+      <c r="E177">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>55.418813873912903</v>
+      </c>
+      <c r="J177">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>104.391299596533</v>
+      </c>
+      <c r="D178">
+        <v>203002.084462839</v>
+      </c>
+      <c r="E178">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>62.1267805821998</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>53.0589697009014</v>
+      </c>
+      <c r="J178">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>106.693836503706</v>
+      </c>
+      <c r="D179">
+        <v>190030.10083902499</v>
+      </c>
+      <c r="E179">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>53.086834086747899</v>
+      </c>
+      <c r="J179">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>106.47943322009</v>
+      </c>
+      <c r="D180">
+        <v>201178.10197996601</v>
+      </c>
+      <c r="E180">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>53.878841594734801</v>
+      </c>
+      <c r="J180">
+        <v>61.002300222040397</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>108.979946433647</v>
+      </c>
+      <c r="D181">
+        <v>193019.12790216901</v>
+      </c>
+      <c r="E181">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>61.554639938998299</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>62.529779238493497</v>
+      </c>
+      <c r="J181">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>100.023667815479</v>
+      </c>
+      <c r="D182">
+        <v>188492.71450280701</v>
+      </c>
+      <c r="E182">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>40.458197213573499</v>
+      </c>
+      <c r="J182">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>79.979741662175897</v>
+      </c>
+      <c r="D183">
+        <v>138145.92978433901</v>
+      </c>
+      <c r="E183">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>57.1728102786996</v>
+      </c>
+      <c r="J183">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>129.28954879785201</v>
+      </c>
+      <c r="D184">
+        <v>244624.23007186499</v>
+      </c>
+      <c r="E184">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>57.700247958382597</v>
+      </c>
+      <c r="J184">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K184">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>98.732131246142202</v>
+      </c>
+      <c r="D185">
+        <v>197109.51111781399</v>
+      </c>
+      <c r="E185">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>55.027243211793298</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>50</v>
+      </c>
+      <c r="J185">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>105.65808079146299</v>
+      </c>
+      <c r="D186">
+        <v>188849.52353369701</v>
+      </c>
+      <c r="E186">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>51.115064996067503</v>
+      </c>
+      <c r="J186">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>131.78001601344999</v>
+      </c>
+      <c r="D187">
+        <v>248066.01870766</v>
+      </c>
+      <c r="E187">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H187">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I187">
+        <v>52.268009295137098</v>
+      </c>
+      <c r="J187">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K187">
+        <v>35.798705069177501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>98.737717894518497</v>
+      </c>
+      <c r="D188">
+        <v>189418.04863265599</v>
+      </c>
+      <c r="E188">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>54.480322521787997</v>
+      </c>
+      <c r="J188">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K188">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>122.317366226395</v>
+      </c>
+      <c r="D189">
+        <v>243611.17600832501</v>
+      </c>
+      <c r="E189">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>47.462284815443503</v>
+      </c>
+      <c r="J189">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K189">
+        <v>50.488142197402702</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>107.529499146934</v>
+      </c>
+      <c r="D190">
+        <v>189025.475990418</v>
+      </c>
+      <c r="E190">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>54.677685820101701</v>
+      </c>
+      <c r="J190">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>99.272834984159502</v>
+      </c>
+      <c r="D191">
+        <v>194056.183471178</v>
+      </c>
+      <c r="E191">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>57.621309372795402</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>48.365244498409702</v>
+      </c>
+      <c r="J191">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D192">
+        <v>190909.986509768</v>
+      </c>
+      <c r="E192">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>60</v>
+      </c>
+      <c r="J192">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>125.919316238524</v>
+      </c>
+      <c r="D193">
+        <v>239910.47306298499</v>
+      </c>
+      <c r="E193">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>51.284333172360199</v>
+      </c>
+      <c r="J193">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K193">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>125.45997170160901</v>
+      </c>
+      <c r="D194">
+        <v>249043.210449084</v>
+      </c>
+      <c r="E194">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>54.720264012018198</v>
+      </c>
+      <c r="J194">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K194">
+        <v>47.957084680073699</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>99.136416708076197</v>
+      </c>
+      <c r="D195">
+        <v>190705.93943962399</v>
+      </c>
+      <c r="E195">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>62.751880983652697</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>42.351185493063497</v>
+      </c>
+      <c r="J195">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>134.102052202745</v>
+      </c>
+      <c r="D196">
+        <v>246544.049870066</v>
+      </c>
+      <c r="E196">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>65.710737519697901</v>
+      </c>
+      <c r="H196">
+        <v>31.0261872350885</v>
+      </c>
+      <c r="I196">
+        <v>50.830330680243399</v>
+      </c>
+      <c r="J196">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K196">
+        <v>41.547681250010697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>110.32527140051</v>
+      </c>
+      <c r="D197">
+        <v>192905.45806162199</v>
+      </c>
+      <c r="E197">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>65.710737519697901</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>60</v>
+      </c>
+      <c r="J197">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>120.162397390026</v>
+      </c>
+      <c r="D198">
+        <v>229424.52587829001</v>
+      </c>
+      <c r="E198">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>40.394712386477998</v>
+      </c>
+      <c r="J198">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K198">
+        <v>55.009692609722897</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>108.522640359826</v>
+      </c>
+      <c r="D199">
+        <v>198747.53066434999</v>
+      </c>
+      <c r="E199">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>62.886946199708397</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>60</v>
+      </c>
+      <c r="J199">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>100.107993551121</v>
+      </c>
+      <c r="D200">
+        <v>197417.585580852</v>
+      </c>
+      <c r="E200">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>57.5662983230146</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>49.999999999999901</v>
+      </c>
+      <c r="J200">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>105.880697550153</v>
+      </c>
+      <c r="D201">
+        <v>191571.117133447</v>
+      </c>
+      <c r="E201">
+        <v>72.984095043383107</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>65.710737519697702</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>51.538860721897699</v>
+      </c>
+      <c r="J201">
+        <v>62.606092987060499</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/robust_recourse_iterative/zero_factor.xlsx
+++ b/results/robust_recourse_iterative/zero_factor.xlsx
@@ -19,15 +19,17 @@
     <sheet name="25scen" sheetId="5" r:id="rId5"/>
     <sheet name="30scen" sheetId="6" r:id="rId6"/>
     <sheet name="Results" sheetId="7" r:id="rId7"/>
-    <sheet name="EEV" sheetId="8" r:id="rId8"/>
+    <sheet name="40scen" sheetId="9" r:id="rId8"/>
+    <sheet name="EEV" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_200iter_10scen_zero_factor" localSheetId="1">'10scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_15scen_zero_factor" localSheetId="2">'15scen'!$A$1:$K$201</definedName>
-    <definedName name="_200iter_1scen_zero_factor" localSheetId="7">EEV!$A$1:$K$201</definedName>
+    <definedName name="_200iter_1scen_zero_factor" localSheetId="8">EEV!$A$1:$K$201</definedName>
     <definedName name="_200iter_20scen_zero_factor" localSheetId="3">'20scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_25scen_zero_factor" localSheetId="4">'25scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_30scen_zero_factor" localSheetId="5">'30scen'!$A$1:$K$201</definedName>
+    <definedName name="_200iter_40scen_under_cap_sos2" localSheetId="7">'40scen'!$A$1:$K$201</definedName>
     <definedName name="_200iter_5scen_zero_factor" localSheetId="0">'5scen'!$A$1:$K$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -143,7 +145,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="200iter_5scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" name="200iter_40scen_under_cap_sos2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_40scen_under_cap_sos2.csv" thousands=" " semicolon="1">
+      <textFields count="11">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="200iter_5scen_zero_factor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\200iter_5scen_zero_factor.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="11">
         <textField/>
@@ -164,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
   <si>
     <t>infeasible count</t>
   </si>
@@ -750,6 +769,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>106.44874359669717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.02135770578739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,7 +2141,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_5scen_zero_factor" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_5scen_zero_factor" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2143,6 +2165,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_40scen_under_cap_sos2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="200iter_1scen_zero_factor" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -44718,10 +44744,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -44921,6 +44950,26 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
+      </c>
+      <c r="B9">
+        <f>SUM('40scen'!B:B)</f>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE('40scen'!C:C)</f>
+        <v>101.02135770578739</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE('40scen'!D:D)</f>
+        <v>224154.74280427207</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.STDEV.S('40scen'!C:C)</f>
+        <v>2.4353257438875109</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.STDEV.S('40scen'!D:D)</f>
+        <v>8141.0921485301778</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -45003,6 +45052,7057 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>110.333520827692</v>
+      </c>
+      <c r="D2">
+        <v>242445.91051617701</v>
+      </c>
+      <c r="E2">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F2">
+        <v>47.067</v>
+      </c>
+      <c r="G2">
+        <v>36.623000317750503</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>29.999999999999901</v>
+      </c>
+      <c r="J2">
+        <v>62.6</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D3">
+        <v>228750.12973389099</v>
+      </c>
+      <c r="E3">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F3">
+        <v>47.067</v>
+      </c>
+      <c r="G3">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>62.6</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D4">
+        <v>215111.03553864299</v>
+      </c>
+      <c r="E4">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F4">
+        <v>47.067</v>
+      </c>
+      <c r="G4">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>62.6</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D5">
+        <v>225649.79962384401</v>
+      </c>
+      <c r="E5">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F5">
+        <v>47.067</v>
+      </c>
+      <c r="G5">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>62.6</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D6">
+        <v>228056.75229862201</v>
+      </c>
+      <c r="E6">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F6">
+        <v>47.067</v>
+      </c>
+      <c r="G6">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>62.6</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D7">
+        <v>222677.78850502899</v>
+      </c>
+      <c r="E7">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F7">
+        <v>47.067</v>
+      </c>
+      <c r="G7">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>62.6</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D8">
+        <v>230071.74225826599</v>
+      </c>
+      <c r="E8">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F8">
+        <v>47.067</v>
+      </c>
+      <c r="G8">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>62.6</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D9">
+        <v>232914.94577899401</v>
+      </c>
+      <c r="E9">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F9">
+        <v>47.067</v>
+      </c>
+      <c r="G9">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>62.6</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D10">
+        <v>229426.16689123199</v>
+      </c>
+      <c r="E10">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F10">
+        <v>47.067</v>
+      </c>
+      <c r="G10">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>62.6</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D11">
+        <v>228562.71583544</v>
+      </c>
+      <c r="E11">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F11">
+        <v>47.067</v>
+      </c>
+      <c r="G11">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>62.6</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D12">
+        <v>211156.06670008801</v>
+      </c>
+      <c r="E12">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F12">
+        <v>47.067</v>
+      </c>
+      <c r="G12">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>62.6</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D13">
+        <v>226764.642453434</v>
+      </c>
+      <c r="E13">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F13">
+        <v>47.067</v>
+      </c>
+      <c r="G13">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>62.6</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D14">
+        <v>226613.501362015</v>
+      </c>
+      <c r="E14">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F14">
+        <v>47.067</v>
+      </c>
+      <c r="G14">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>62.6</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D15">
+        <v>230814.07257078201</v>
+      </c>
+      <c r="E15">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F15">
+        <v>47.067</v>
+      </c>
+      <c r="G15">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>62.6</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D16">
+        <v>221878.67742573901</v>
+      </c>
+      <c r="E16">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F16">
+        <v>47.067</v>
+      </c>
+      <c r="G16">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>62.6</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D17">
+        <v>229916.817999766</v>
+      </c>
+      <c r="E17">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F17">
+        <v>47.067</v>
+      </c>
+      <c r="G17">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>62.6</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D18">
+        <v>224000.64350973701</v>
+      </c>
+      <c r="E18">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F18">
+        <v>47.067</v>
+      </c>
+      <c r="G18">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>62.6</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D19">
+        <v>235143.67697224999</v>
+      </c>
+      <c r="E19">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F19">
+        <v>47.067</v>
+      </c>
+      <c r="G19">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>62.6</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D20">
+        <v>225053.150392465</v>
+      </c>
+      <c r="E20">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F20">
+        <v>47.067</v>
+      </c>
+      <c r="G20">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>62.6</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D21">
+        <v>215110.40684731799</v>
+      </c>
+      <c r="E21">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F21">
+        <v>47.067</v>
+      </c>
+      <c r="G21">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>62.6</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D22">
+        <v>230739.40476452501</v>
+      </c>
+      <c r="E22">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F22">
+        <v>47.067</v>
+      </c>
+      <c r="G22">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>62.6</v>
+      </c>
+      <c r="K22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D23">
+        <v>226678.809962675</v>
+      </c>
+      <c r="E23">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F23">
+        <v>47.067</v>
+      </c>
+      <c r="G23">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>62.6</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D24">
+        <v>222929.21925277601</v>
+      </c>
+      <c r="E24">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F24">
+        <v>47.067</v>
+      </c>
+      <c r="G24">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>62.6</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D25">
+        <v>226676.84778889801</v>
+      </c>
+      <c r="E25">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F25">
+        <v>47.067</v>
+      </c>
+      <c r="G25">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>62.6</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D26">
+        <v>223426.467511853</v>
+      </c>
+      <c r="E26">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F26">
+        <v>47.067</v>
+      </c>
+      <c r="G26">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>62.6</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D27">
+        <v>233637.41484570701</v>
+      </c>
+      <c r="E27">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F27">
+        <v>47.067</v>
+      </c>
+      <c r="G27">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>62.6</v>
+      </c>
+      <c r="K27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D28">
+        <v>219197.68342457301</v>
+      </c>
+      <c r="E28">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F28">
+        <v>47.067</v>
+      </c>
+      <c r="G28">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>62.6</v>
+      </c>
+      <c r="K28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D29">
+        <v>232486.645281103</v>
+      </c>
+      <c r="E29">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F29">
+        <v>47.067</v>
+      </c>
+      <c r="G29">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>62.6</v>
+      </c>
+      <c r="K29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D30">
+        <v>219289.20494050899</v>
+      </c>
+      <c r="E30">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F30">
+        <v>47.067</v>
+      </c>
+      <c r="G30">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>62.6</v>
+      </c>
+      <c r="K30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D31">
+        <v>216692.73456568099</v>
+      </c>
+      <c r="E31">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F31">
+        <v>47.067</v>
+      </c>
+      <c r="G31">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>62.6</v>
+      </c>
+      <c r="K31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D32">
+        <v>218796.217715304</v>
+      </c>
+      <c r="E32">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F32">
+        <v>47.067</v>
+      </c>
+      <c r="G32">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>62.6</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D33">
+        <v>217401.16467929201</v>
+      </c>
+      <c r="E33">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F33">
+        <v>47.067</v>
+      </c>
+      <c r="G33">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>62.6</v>
+      </c>
+      <c r="K33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D34">
+        <v>226595.08219280801</v>
+      </c>
+      <c r="E34">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F34">
+        <v>47.067</v>
+      </c>
+      <c r="G34">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>62.6</v>
+      </c>
+      <c r="K34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D35">
+        <v>219753.70429011001</v>
+      </c>
+      <c r="E35">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F35">
+        <v>47.067</v>
+      </c>
+      <c r="G35">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>62.6</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D36">
+        <v>211628.60883828101</v>
+      </c>
+      <c r="E36">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F36">
+        <v>47.067</v>
+      </c>
+      <c r="G36">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>62.6</v>
+      </c>
+      <c r="K36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D37">
+        <v>224193.54041693101</v>
+      </c>
+      <c r="E37">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F37">
+        <v>47.067</v>
+      </c>
+      <c r="G37">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>62.6</v>
+      </c>
+      <c r="K37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D38">
+        <v>228129.36443653601</v>
+      </c>
+      <c r="E38">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F38">
+        <v>47.067</v>
+      </c>
+      <c r="G38">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>62.6</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D39">
+        <v>226543.61099818899</v>
+      </c>
+      <c r="E39">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F39">
+        <v>47.067</v>
+      </c>
+      <c r="G39">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>62.6</v>
+      </c>
+      <c r="K39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D40">
+        <v>222341.45193742201</v>
+      </c>
+      <c r="E40">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F40">
+        <v>47.067</v>
+      </c>
+      <c r="G40">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>62.6</v>
+      </c>
+      <c r="K40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D41">
+        <v>236152.535285866</v>
+      </c>
+      <c r="E41">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F41">
+        <v>47.067</v>
+      </c>
+      <c r="G41">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>62.6</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D42">
+        <v>217641.60741461799</v>
+      </c>
+      <c r="E42">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F42">
+        <v>47.067</v>
+      </c>
+      <c r="G42">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>62.6</v>
+      </c>
+      <c r="K42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D43">
+        <v>221810.71650476201</v>
+      </c>
+      <c r="E43">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F43">
+        <v>47.067</v>
+      </c>
+      <c r="G43">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>62.6</v>
+      </c>
+      <c r="K43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D44">
+        <v>221434.034041401</v>
+      </c>
+      <c r="E44">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F44">
+        <v>47.067</v>
+      </c>
+      <c r="G44">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>62.6</v>
+      </c>
+      <c r="K44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D45">
+        <v>233842.800872711</v>
+      </c>
+      <c r="E45">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F45">
+        <v>47.067</v>
+      </c>
+      <c r="G45">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>62.6</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D46">
+        <v>219984.957224971</v>
+      </c>
+      <c r="E46">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F46">
+        <v>47.067</v>
+      </c>
+      <c r="G46">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>62.6</v>
+      </c>
+      <c r="K46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D47">
+        <v>219027.43327255899</v>
+      </c>
+      <c r="E47">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F47">
+        <v>47.067</v>
+      </c>
+      <c r="G47">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>62.6</v>
+      </c>
+      <c r="K47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D48">
+        <v>230287.21880880799</v>
+      </c>
+      <c r="E48">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F48">
+        <v>47.067</v>
+      </c>
+      <c r="G48">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>62.6</v>
+      </c>
+      <c r="K48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D49">
+        <v>226771.13231408899</v>
+      </c>
+      <c r="E49">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F49">
+        <v>47.067</v>
+      </c>
+      <c r="G49">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>62.6</v>
+      </c>
+      <c r="K49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D50">
+        <v>232317.89780583701</v>
+      </c>
+      <c r="E50">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F50">
+        <v>47.067</v>
+      </c>
+      <c r="G50">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>62.6</v>
+      </c>
+      <c r="K50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D51">
+        <v>224568.74896741001</v>
+      </c>
+      <c r="E51">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F51">
+        <v>47.067</v>
+      </c>
+      <c r="G51">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>62.6</v>
+      </c>
+      <c r="K51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D52">
+        <v>214841.78256034499</v>
+      </c>
+      <c r="E52">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F52">
+        <v>47.067</v>
+      </c>
+      <c r="G52">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>62.6</v>
+      </c>
+      <c r="K52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D53">
+        <v>239196.15285387399</v>
+      </c>
+      <c r="E53">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F53">
+        <v>47.067</v>
+      </c>
+      <c r="G53">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>62.6</v>
+      </c>
+      <c r="K53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D54">
+        <v>216827.42015613001</v>
+      </c>
+      <c r="E54">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F54">
+        <v>47.067</v>
+      </c>
+      <c r="G54">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>62.6</v>
+      </c>
+      <c r="K54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D55">
+        <v>218430.798075281</v>
+      </c>
+      <c r="E55">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F55">
+        <v>47.067</v>
+      </c>
+      <c r="G55">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>62.6</v>
+      </c>
+      <c r="K55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D56">
+        <v>225973.463713028</v>
+      </c>
+      <c r="E56">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F56">
+        <v>47.067</v>
+      </c>
+      <c r="G56">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>62.6</v>
+      </c>
+      <c r="K56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D57">
+        <v>215101.220236291</v>
+      </c>
+      <c r="E57">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F57">
+        <v>47.067</v>
+      </c>
+      <c r="G57">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>62.6</v>
+      </c>
+      <c r="K57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D58">
+        <v>216560.96582314701</v>
+      </c>
+      <c r="E58">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F58">
+        <v>47.067</v>
+      </c>
+      <c r="G58">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>62.6</v>
+      </c>
+      <c r="K58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D59">
+        <v>225297.750423283</v>
+      </c>
+      <c r="E59">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F59">
+        <v>47.067</v>
+      </c>
+      <c r="G59">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>62.6</v>
+      </c>
+      <c r="K59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D60">
+        <v>227094.852670861</v>
+      </c>
+      <c r="E60">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F60">
+        <v>47.067</v>
+      </c>
+      <c r="G60">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>62.6</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D61">
+        <v>222665.11466558001</v>
+      </c>
+      <c r="E61">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F61">
+        <v>47.067</v>
+      </c>
+      <c r="G61">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>62.6</v>
+      </c>
+      <c r="K61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D62">
+        <v>228291.619123554</v>
+      </c>
+      <c r="E62">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F62">
+        <v>47.067</v>
+      </c>
+      <c r="G62">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>62.6</v>
+      </c>
+      <c r="K62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D63">
+        <v>220300.39649926999</v>
+      </c>
+      <c r="E63">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F63">
+        <v>47.067</v>
+      </c>
+      <c r="G63">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>62.6</v>
+      </c>
+      <c r="K63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D64">
+        <v>222625.33753163001</v>
+      </c>
+      <c r="E64">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F64">
+        <v>47.067</v>
+      </c>
+      <c r="G64">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>62.6</v>
+      </c>
+      <c r="K64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D65">
+        <v>231729.78884438201</v>
+      </c>
+      <c r="E65">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F65">
+        <v>47.067</v>
+      </c>
+      <c r="G65">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>62.6</v>
+      </c>
+      <c r="K65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D66">
+        <v>219719.70334820499</v>
+      </c>
+      <c r="E66">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F66">
+        <v>47.067</v>
+      </c>
+      <c r="G66">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>62.6</v>
+      </c>
+      <c r="K66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D67">
+        <v>216635.80503739501</v>
+      </c>
+      <c r="E67">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F67">
+        <v>47.067</v>
+      </c>
+      <c r="G67">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>62.6</v>
+      </c>
+      <c r="K67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D68">
+        <v>227342.39865125899</v>
+      </c>
+      <c r="E68">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F68">
+        <v>47.067</v>
+      </c>
+      <c r="G68">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>62.6</v>
+      </c>
+      <c r="K68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D69">
+        <v>229318.289219256</v>
+      </c>
+      <c r="E69">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F69">
+        <v>47.067</v>
+      </c>
+      <c r="G69">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>62.6</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D70">
+        <v>232840.50478324399</v>
+      </c>
+      <c r="E70">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F70">
+        <v>47.067</v>
+      </c>
+      <c r="G70">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>62.6</v>
+      </c>
+      <c r="K70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D71">
+        <v>226438.370080769</v>
+      </c>
+      <c r="E71">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F71">
+        <v>47.067</v>
+      </c>
+      <c r="G71">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>62.6</v>
+      </c>
+      <c r="K71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D72">
+        <v>225593.705489727</v>
+      </c>
+      <c r="E72">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F72">
+        <v>47.067</v>
+      </c>
+      <c r="G72">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>62.6</v>
+      </c>
+      <c r="K72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D73">
+        <v>225856.51830622199</v>
+      </c>
+      <c r="E73">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F73">
+        <v>47.067</v>
+      </c>
+      <c r="G73">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>62.6</v>
+      </c>
+      <c r="K73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D74">
+        <v>225940.079691127</v>
+      </c>
+      <c r="E74">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F74">
+        <v>47.067</v>
+      </c>
+      <c r="G74">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>62.6</v>
+      </c>
+      <c r="K74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>82.030779780082895</v>
+      </c>
+      <c r="D75">
+        <v>185677.31002000699</v>
+      </c>
+      <c r="E75">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F75">
+        <v>47.067</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>62.6</v>
+      </c>
+      <c r="K75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D76">
+        <v>234747.836430197</v>
+      </c>
+      <c r="E76">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F76">
+        <v>47.067</v>
+      </c>
+      <c r="G76">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>62.6</v>
+      </c>
+      <c r="K76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D77">
+        <v>219850.63933120199</v>
+      </c>
+      <c r="E77">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F77">
+        <v>47.067</v>
+      </c>
+      <c r="G77">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>62.6</v>
+      </c>
+      <c r="K77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D78">
+        <v>213018.212787692</v>
+      </c>
+      <c r="E78">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F78">
+        <v>47.067</v>
+      </c>
+      <c r="G78">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>62.6</v>
+      </c>
+      <c r="K78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D79">
+        <v>229285.44811069701</v>
+      </c>
+      <c r="E79">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F79">
+        <v>47.067</v>
+      </c>
+      <c r="G79">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>62.6</v>
+      </c>
+      <c r="K79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D80">
+        <v>227179.07004986599</v>
+      </c>
+      <c r="E80">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F80">
+        <v>47.067</v>
+      </c>
+      <c r="G80">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>62.6</v>
+      </c>
+      <c r="K80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D81">
+        <v>226260.419618254</v>
+      </c>
+      <c r="E81">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F81">
+        <v>47.067</v>
+      </c>
+      <c r="G81">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>62.6</v>
+      </c>
+      <c r="K81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D82">
+        <v>229258.95203540701</v>
+      </c>
+      <c r="E82">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F82">
+        <v>47.067</v>
+      </c>
+      <c r="G82">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>62.6</v>
+      </c>
+      <c r="K82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D83">
+        <v>220412.82634399601</v>
+      </c>
+      <c r="E83">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F83">
+        <v>47.067</v>
+      </c>
+      <c r="G83">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>62.6</v>
+      </c>
+      <c r="K83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D84">
+        <v>234206.65827094601</v>
+      </c>
+      <c r="E84">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F84">
+        <v>47.067</v>
+      </c>
+      <c r="G84">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>62.6</v>
+      </c>
+      <c r="K84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D85">
+        <v>228224.69786557299</v>
+      </c>
+      <c r="E85">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F85">
+        <v>47.067</v>
+      </c>
+      <c r="G85">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>62.6</v>
+      </c>
+      <c r="K85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D86">
+        <v>214737.137714059</v>
+      </c>
+      <c r="E86">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F86">
+        <v>47.067</v>
+      </c>
+      <c r="G86">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>62.6</v>
+      </c>
+      <c r="K86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D87">
+        <v>224049.53382064201</v>
+      </c>
+      <c r="E87">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F87">
+        <v>47.067</v>
+      </c>
+      <c r="G87">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>62.6</v>
+      </c>
+      <c r="K87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>82.030779780082895</v>
+      </c>
+      <c r="D88">
+        <v>179241.07023403599</v>
+      </c>
+      <c r="E88">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F88">
+        <v>47.067</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>62.6</v>
+      </c>
+      <c r="K88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D89">
+        <v>230274.738553292</v>
+      </c>
+      <c r="E89">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F89">
+        <v>47.067</v>
+      </c>
+      <c r="G89">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>62.6</v>
+      </c>
+      <c r="K89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D90">
+        <v>224570.35914438899</v>
+      </c>
+      <c r="E90">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F90">
+        <v>47.067</v>
+      </c>
+      <c r="G90">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>62.6</v>
+      </c>
+      <c r="K90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D91">
+        <v>221188.99845484699</v>
+      </c>
+      <c r="E91">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F91">
+        <v>47.067</v>
+      </c>
+      <c r="G91">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>62.6</v>
+      </c>
+      <c r="K91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D92">
+        <v>231902.62078115399</v>
+      </c>
+      <c r="E92">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F92">
+        <v>47.067</v>
+      </c>
+      <c r="G92">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>62.6</v>
+      </c>
+      <c r="K92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D93">
+        <v>229523.695721539</v>
+      </c>
+      <c r="E93">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F93">
+        <v>47.067</v>
+      </c>
+      <c r="G93">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>62.6</v>
+      </c>
+      <c r="K93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D94">
+        <v>224406.11737373899</v>
+      </c>
+      <c r="E94">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F94">
+        <v>47.067</v>
+      </c>
+      <c r="G94">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>62.6</v>
+      </c>
+      <c r="K94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D95">
+        <v>222622.992102135</v>
+      </c>
+      <c r="E95">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F95">
+        <v>47.067</v>
+      </c>
+      <c r="G95">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>62.6</v>
+      </c>
+      <c r="K95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D96">
+        <v>225314.78899135499</v>
+      </c>
+      <c r="E96">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F96">
+        <v>47.067</v>
+      </c>
+      <c r="G96">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>62.6</v>
+      </c>
+      <c r="K96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D97">
+        <v>215141.41701948701</v>
+      </c>
+      <c r="E97">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F97">
+        <v>47.067</v>
+      </c>
+      <c r="G97">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>62.6</v>
+      </c>
+      <c r="K97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D98">
+        <v>226074.83204492999</v>
+      </c>
+      <c r="E98">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F98">
+        <v>47.067</v>
+      </c>
+      <c r="G98">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>62.6</v>
+      </c>
+      <c r="K98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D99">
+        <v>230013.07819991399</v>
+      </c>
+      <c r="E99">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F99">
+        <v>47.067</v>
+      </c>
+      <c r="G99">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>62.6</v>
+      </c>
+      <c r="K99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D100">
+        <v>230430.48391730999</v>
+      </c>
+      <c r="E100">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F100">
+        <v>47.067</v>
+      </c>
+      <c r="G100">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>62.6</v>
+      </c>
+      <c r="K100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D101">
+        <v>227243.54450305799</v>
+      </c>
+      <c r="E101">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F101">
+        <v>47.067</v>
+      </c>
+      <c r="G101">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>62.6</v>
+      </c>
+      <c r="K101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D102">
+        <v>232016.320377672</v>
+      </c>
+      <c r="E102">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F102">
+        <v>47.067</v>
+      </c>
+      <c r="G102">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>62.6</v>
+      </c>
+      <c r="K102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D103">
+        <v>227350.27765706499</v>
+      </c>
+      <c r="E103">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F103">
+        <v>47.067</v>
+      </c>
+      <c r="G103">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>62.6</v>
+      </c>
+      <c r="K103">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D104">
+        <v>227841.00143620101</v>
+      </c>
+      <c r="E104">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F104">
+        <v>47.067</v>
+      </c>
+      <c r="G104">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>62.6</v>
+      </c>
+      <c r="K104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D105">
+        <v>222348.647080731</v>
+      </c>
+      <c r="E105">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F105">
+        <v>47.067</v>
+      </c>
+      <c r="G105">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>62.6</v>
+      </c>
+      <c r="K105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D106">
+        <v>231425.017334384</v>
+      </c>
+      <c r="E106">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F106">
+        <v>47.067</v>
+      </c>
+      <c r="G106">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>62.6</v>
+      </c>
+      <c r="K106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D107">
+        <v>220593.27914932801</v>
+      </c>
+      <c r="E107">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F107">
+        <v>47.067</v>
+      </c>
+      <c r="G107">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>62.6</v>
+      </c>
+      <c r="K107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D108">
+        <v>231380.892832891</v>
+      </c>
+      <c r="E108">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F108">
+        <v>47.067</v>
+      </c>
+      <c r="G108">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>62.6</v>
+      </c>
+      <c r="K108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D109">
+        <v>208944.69579029101</v>
+      </c>
+      <c r="E109">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F109">
+        <v>47.067</v>
+      </c>
+      <c r="G109">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>62.6</v>
+      </c>
+      <c r="K109">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D110">
+        <v>215158.52339454499</v>
+      </c>
+      <c r="E110">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F110">
+        <v>47.067</v>
+      </c>
+      <c r="G110">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>62.6</v>
+      </c>
+      <c r="K110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D111">
+        <v>225616.65495416601</v>
+      </c>
+      <c r="E111">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F111">
+        <v>47.067</v>
+      </c>
+      <c r="G111">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>62.6</v>
+      </c>
+      <c r="K111">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D112">
+        <v>221497.71355303199</v>
+      </c>
+      <c r="E112">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F112">
+        <v>47.067</v>
+      </c>
+      <c r="G112">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>62.6</v>
+      </c>
+      <c r="K112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D113">
+        <v>224407.97441141499</v>
+      </c>
+      <c r="E113">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F113">
+        <v>47.067</v>
+      </c>
+      <c r="G113">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>62.6</v>
+      </c>
+      <c r="K113">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D114">
+        <v>234261.813337036</v>
+      </c>
+      <c r="E114">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F114">
+        <v>47.067</v>
+      </c>
+      <c r="G114">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>62.6</v>
+      </c>
+      <c r="K114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D115">
+        <v>228160.84737494501</v>
+      </c>
+      <c r="E115">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F115">
+        <v>47.067</v>
+      </c>
+      <c r="G115">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>62.6</v>
+      </c>
+      <c r="K115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D116">
+        <v>233083.35280330401</v>
+      </c>
+      <c r="E116">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F116">
+        <v>47.067</v>
+      </c>
+      <c r="G116">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>62.6</v>
+      </c>
+      <c r="K116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D117">
+        <v>221542.705320732</v>
+      </c>
+      <c r="E117">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F117">
+        <v>47.067</v>
+      </c>
+      <c r="G117">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>62.6</v>
+      </c>
+      <c r="K117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D118">
+        <v>231106.518825634</v>
+      </c>
+      <c r="E118">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F118">
+        <v>47.067</v>
+      </c>
+      <c r="G118">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>62.6</v>
+      </c>
+      <c r="K118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D119">
+        <v>226743.87134213999</v>
+      </c>
+      <c r="E119">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F119">
+        <v>47.067</v>
+      </c>
+      <c r="G119">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>62.6</v>
+      </c>
+      <c r="K119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D120">
+        <v>222049.80688617201</v>
+      </c>
+      <c r="E120">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F120">
+        <v>47.067</v>
+      </c>
+      <c r="G120">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>62.6</v>
+      </c>
+      <c r="K120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D121">
+        <v>225360.27521910999</v>
+      </c>
+      <c r="E121">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F121">
+        <v>47.067</v>
+      </c>
+      <c r="G121">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>62.6</v>
+      </c>
+      <c r="K121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D122">
+        <v>222601.25325754899</v>
+      </c>
+      <c r="E122">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F122">
+        <v>47.067</v>
+      </c>
+      <c r="G122">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>62.6</v>
+      </c>
+      <c r="K122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D123">
+        <v>227535.11222380301</v>
+      </c>
+      <c r="E123">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F123">
+        <v>47.067</v>
+      </c>
+      <c r="G123">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>62.6</v>
+      </c>
+      <c r="K123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D124">
+        <v>217833.94509470399</v>
+      </c>
+      <c r="E124">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F124">
+        <v>47.067</v>
+      </c>
+      <c r="G124">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>62.6</v>
+      </c>
+      <c r="K124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D125">
+        <v>227157.05190738101</v>
+      </c>
+      <c r="E125">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F125">
+        <v>47.067</v>
+      </c>
+      <c r="G125">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>62.6</v>
+      </c>
+      <c r="K125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D126">
+        <v>234238.65034577201</v>
+      </c>
+      <c r="E126">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F126">
+        <v>47.067</v>
+      </c>
+      <c r="G126">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>62.6</v>
+      </c>
+      <c r="K126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D127">
+        <v>223340.050416668</v>
+      </c>
+      <c r="E127">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F127">
+        <v>47.067</v>
+      </c>
+      <c r="G127">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>62.6</v>
+      </c>
+      <c r="K127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D128">
+        <v>213373.35047733699</v>
+      </c>
+      <c r="E128">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F128">
+        <v>47.067</v>
+      </c>
+      <c r="G128">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>62.6</v>
+      </c>
+      <c r="K128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D129">
+        <v>223098.14220248</v>
+      </c>
+      <c r="E129">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F129">
+        <v>47.067</v>
+      </c>
+      <c r="G129">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>62.6</v>
+      </c>
+      <c r="K129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D130">
+        <v>219863.67045323999</v>
+      </c>
+      <c r="E130">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F130">
+        <v>47.067</v>
+      </c>
+      <c r="G130">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>62.6</v>
+      </c>
+      <c r="K130">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D131">
+        <v>229071.629424204</v>
+      </c>
+      <c r="E131">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F131">
+        <v>47.067</v>
+      </c>
+      <c r="G131">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>62.6</v>
+      </c>
+      <c r="K131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D132">
+        <v>218991.32661372999</v>
+      </c>
+      <c r="E132">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F132">
+        <v>47.067</v>
+      </c>
+      <c r="G132">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>62.6</v>
+      </c>
+      <c r="K132">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D133">
+        <v>236534.40042992201</v>
+      </c>
+      <c r="E133">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F133">
+        <v>47.067</v>
+      </c>
+      <c r="G133">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>62.6</v>
+      </c>
+      <c r="K133">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D134">
+        <v>224021.12886512699</v>
+      </c>
+      <c r="E134">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F134">
+        <v>47.067</v>
+      </c>
+      <c r="G134">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>62.6</v>
+      </c>
+      <c r="K134">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D135">
+        <v>228772.640833007</v>
+      </c>
+      <c r="E135">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F135">
+        <v>47.067</v>
+      </c>
+      <c r="G135">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>62.6</v>
+      </c>
+      <c r="K135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D136">
+        <v>225938.55864850001</v>
+      </c>
+      <c r="E136">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F136">
+        <v>47.067</v>
+      </c>
+      <c r="G136">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>62.6</v>
+      </c>
+      <c r="K136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D137">
+        <v>222585.33713445201</v>
+      </c>
+      <c r="E137">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F137">
+        <v>47.067</v>
+      </c>
+      <c r="G137">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>62.6</v>
+      </c>
+      <c r="K137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D138">
+        <v>229218.28018780099</v>
+      </c>
+      <c r="E138">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F138">
+        <v>47.067</v>
+      </c>
+      <c r="G138">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>62.6</v>
+      </c>
+      <c r="K138">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D139">
+        <v>229770.19972440501</v>
+      </c>
+      <c r="E139">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F139">
+        <v>47.067</v>
+      </c>
+      <c r="G139">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>62.6</v>
+      </c>
+      <c r="K139">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D140">
+        <v>221030.703421894</v>
+      </c>
+      <c r="E140">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F140">
+        <v>47.067</v>
+      </c>
+      <c r="G140">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>62.6</v>
+      </c>
+      <c r="K140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D141">
+        <v>219560.08523258299</v>
+      </c>
+      <c r="E141">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F141">
+        <v>47.067</v>
+      </c>
+      <c r="G141">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>62.6</v>
+      </c>
+      <c r="K141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D142">
+        <v>230209.47978279801</v>
+      </c>
+      <c r="E142">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F142">
+        <v>47.067</v>
+      </c>
+      <c r="G142">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>62.6</v>
+      </c>
+      <c r="K142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D143">
+        <v>225173.07029807899</v>
+      </c>
+      <c r="E143">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F143">
+        <v>47.067</v>
+      </c>
+      <c r="G143">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>62.6</v>
+      </c>
+      <c r="K143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D144">
+        <v>231562.69819513499</v>
+      </c>
+      <c r="E144">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F144">
+        <v>47.067</v>
+      </c>
+      <c r="G144">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>62.6</v>
+      </c>
+      <c r="K144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D145">
+        <v>224521.88371671399</v>
+      </c>
+      <c r="E145">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F145">
+        <v>47.067</v>
+      </c>
+      <c r="G145">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>62.6</v>
+      </c>
+      <c r="K145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D146">
+        <v>210282.97626013801</v>
+      </c>
+      <c r="E146">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F146">
+        <v>47.067</v>
+      </c>
+      <c r="G146">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>62.6</v>
+      </c>
+      <c r="K146">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D147">
+        <v>226122.93455412</v>
+      </c>
+      <c r="E147">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F147">
+        <v>47.067</v>
+      </c>
+      <c r="G147">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>62.6</v>
+      </c>
+      <c r="K147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D148">
+        <v>227481.05842365499</v>
+      </c>
+      <c r="E148">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F148">
+        <v>47.067</v>
+      </c>
+      <c r="G148">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>62.6</v>
+      </c>
+      <c r="K148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D149">
+        <v>234833.869298148</v>
+      </c>
+      <c r="E149">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F149">
+        <v>47.067</v>
+      </c>
+      <c r="G149">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>62.6</v>
+      </c>
+      <c r="K149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D150">
+        <v>232590.29125817699</v>
+      </c>
+      <c r="E150">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F150">
+        <v>47.067</v>
+      </c>
+      <c r="G150">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>62.6</v>
+      </c>
+      <c r="K150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D151">
+        <v>224507.085820637</v>
+      </c>
+      <c r="E151">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F151">
+        <v>47.067</v>
+      </c>
+      <c r="G151">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>62.6</v>
+      </c>
+      <c r="K151">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D152">
+        <v>226052.80799072201</v>
+      </c>
+      <c r="E152">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F152">
+        <v>47.067</v>
+      </c>
+      <c r="G152">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>62.6</v>
+      </c>
+      <c r="K152">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D153">
+        <v>222172.88666142599</v>
+      </c>
+      <c r="E153">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F153">
+        <v>47.067</v>
+      </c>
+      <c r="G153">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>62.6</v>
+      </c>
+      <c r="K153">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D154">
+        <v>233044.79339700399</v>
+      </c>
+      <c r="E154">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F154">
+        <v>47.067</v>
+      </c>
+      <c r="G154">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>62.6</v>
+      </c>
+      <c r="K154">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D155">
+        <v>226276.36932637301</v>
+      </c>
+      <c r="E155">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F155">
+        <v>47.067</v>
+      </c>
+      <c r="G155">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>62.6</v>
+      </c>
+      <c r="K155">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D156">
+        <v>227970.51145566799</v>
+      </c>
+      <c r="E156">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F156">
+        <v>47.067</v>
+      </c>
+      <c r="G156">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>62.6</v>
+      </c>
+      <c r="K156">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D157">
+        <v>226561.71794528401</v>
+      </c>
+      <c r="E157">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F157">
+        <v>47.067</v>
+      </c>
+      <c r="G157">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>62.6</v>
+      </c>
+      <c r="K157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D158">
+        <v>218854.877835783</v>
+      </c>
+      <c r="E158">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F158">
+        <v>47.067</v>
+      </c>
+      <c r="G158">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>62.6</v>
+      </c>
+      <c r="K158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D159">
+        <v>216456.65871553399</v>
+      </c>
+      <c r="E159">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F159">
+        <v>47.067</v>
+      </c>
+      <c r="G159">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>62.6</v>
+      </c>
+      <c r="K159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D160">
+        <v>220046.26696924501</v>
+      </c>
+      <c r="E160">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F160">
+        <v>47.067</v>
+      </c>
+      <c r="G160">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>62.6</v>
+      </c>
+      <c r="K160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D161">
+        <v>225223.82860812801</v>
+      </c>
+      <c r="E161">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F161">
+        <v>47.067</v>
+      </c>
+      <c r="G161">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>62.6</v>
+      </c>
+      <c r="K161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D162">
+        <v>222202.00479839899</v>
+      </c>
+      <c r="E162">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F162">
+        <v>47.067</v>
+      </c>
+      <c r="G162">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>62.6</v>
+      </c>
+      <c r="K162">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D163">
+        <v>219174.51912669101</v>
+      </c>
+      <c r="E163">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F163">
+        <v>47.067</v>
+      </c>
+      <c r="G163">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>62.6</v>
+      </c>
+      <c r="K163">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D164">
+        <v>223097.104566339</v>
+      </c>
+      <c r="E164">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F164">
+        <v>47.067</v>
+      </c>
+      <c r="G164">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>62.6</v>
+      </c>
+      <c r="K164">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D165">
+        <v>219736.486919088</v>
+      </c>
+      <c r="E165">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F165">
+        <v>47.067</v>
+      </c>
+      <c r="G165">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>62.6</v>
+      </c>
+      <c r="K165">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D166">
+        <v>220105.40967610301</v>
+      </c>
+      <c r="E166">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F166">
+        <v>47.067</v>
+      </c>
+      <c r="G166">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>62.6</v>
+      </c>
+      <c r="K166">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D167">
+        <v>222480.928172677</v>
+      </c>
+      <c r="E167">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F167">
+        <v>47.067</v>
+      </c>
+      <c r="G167">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>62.6</v>
+      </c>
+      <c r="K167">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D168">
+        <v>223229.176144203</v>
+      </c>
+      <c r="E168">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F168">
+        <v>47.067</v>
+      </c>
+      <c r="G168">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>62.6</v>
+      </c>
+      <c r="K168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D169">
+        <v>223210.45706460701</v>
+      </c>
+      <c r="E169">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F169">
+        <v>47.067</v>
+      </c>
+      <c r="G169">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>62.6</v>
+      </c>
+      <c r="K169">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D170">
+        <v>231685.49527941601</v>
+      </c>
+      <c r="E170">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F170">
+        <v>47.067</v>
+      </c>
+      <c r="G170">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>62.6</v>
+      </c>
+      <c r="K170">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D171">
+        <v>221935.685347814</v>
+      </c>
+      <c r="E171">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F171">
+        <v>47.067</v>
+      </c>
+      <c r="G171">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>62.6</v>
+      </c>
+      <c r="K171">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D172">
+        <v>226597.58155231099</v>
+      </c>
+      <c r="E172">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F172">
+        <v>47.067</v>
+      </c>
+      <c r="G172">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>62.6</v>
+      </c>
+      <c r="K172">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D173">
+        <v>226363.40550856901</v>
+      </c>
+      <c r="E173">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F173">
+        <v>47.067</v>
+      </c>
+      <c r="G173">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>62.6</v>
+      </c>
+      <c r="K173">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D174">
+        <v>221297.66504415701</v>
+      </c>
+      <c r="E174">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F174">
+        <v>47.067</v>
+      </c>
+      <c r="G174">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>62.6</v>
+      </c>
+      <c r="K174">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D175">
+        <v>233031.99592292501</v>
+      </c>
+      <c r="E175">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F175">
+        <v>47.067</v>
+      </c>
+      <c r="G175">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>62.6</v>
+      </c>
+      <c r="K175">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D176">
+        <v>210146.46004795301</v>
+      </c>
+      <c r="E176">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F176">
+        <v>47.067</v>
+      </c>
+      <c r="G176">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>62.6</v>
+      </c>
+      <c r="K176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D177">
+        <v>223395.44839904399</v>
+      </c>
+      <c r="E177">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F177">
+        <v>47.067</v>
+      </c>
+      <c r="G177">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>62.6</v>
+      </c>
+      <c r="K177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D178">
+        <v>228464.271873752</v>
+      </c>
+      <c r="E178">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F178">
+        <v>47.067</v>
+      </c>
+      <c r="G178">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>62.6</v>
+      </c>
+      <c r="K178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D179">
+        <v>230535.90659233899</v>
+      </c>
+      <c r="E179">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F179">
+        <v>47.067</v>
+      </c>
+      <c r="G179">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>62.6</v>
+      </c>
+      <c r="K179">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D180">
+        <v>218483.27978579301</v>
+      </c>
+      <c r="E180">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F180">
+        <v>47.067</v>
+      </c>
+      <c r="G180">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>62.6</v>
+      </c>
+      <c r="K180">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D181">
+        <v>228164.21426968201</v>
+      </c>
+      <c r="E181">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F181">
+        <v>47.067</v>
+      </c>
+      <c r="G181">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>62.6</v>
+      </c>
+      <c r="K181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D182">
+        <v>219826.92866453301</v>
+      </c>
+      <c r="E182">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F182">
+        <v>47.067</v>
+      </c>
+      <c r="G182">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>62.6</v>
+      </c>
+      <c r="K182">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D183">
+        <v>220451.90464543999</v>
+      </c>
+      <c r="E183">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F183">
+        <v>47.067</v>
+      </c>
+      <c r="G183">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>62.6</v>
+      </c>
+      <c r="K183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D184">
+        <v>231010.07460572201</v>
+      </c>
+      <c r="E184">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F184">
+        <v>47.067</v>
+      </c>
+      <c r="G184">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>62.6</v>
+      </c>
+      <c r="K184">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D185">
+        <v>217142.69019075701</v>
+      </c>
+      <c r="E185">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F185">
+        <v>47.067</v>
+      </c>
+      <c r="G185">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>62.6</v>
+      </c>
+      <c r="K185">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D186">
+        <v>233041.16487113101</v>
+      </c>
+      <c r="E186">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F186">
+        <v>47.067</v>
+      </c>
+      <c r="G186">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>62.6</v>
+      </c>
+      <c r="K186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D187">
+        <v>227672.67929619399</v>
+      </c>
+      <c r="E187">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F187">
+        <v>47.067</v>
+      </c>
+      <c r="G187">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>62.6</v>
+      </c>
+      <c r="K187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D188">
+        <v>217431.920123811</v>
+      </c>
+      <c r="E188">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F188">
+        <v>47.067</v>
+      </c>
+      <c r="G188">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>62.6</v>
+      </c>
+      <c r="K188">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D189">
+        <v>226007.97394624699</v>
+      </c>
+      <c r="E189">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F189">
+        <v>47.067</v>
+      </c>
+      <c r="G189">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>62.6</v>
+      </c>
+      <c r="K189">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D190">
+        <v>218071.08215701499</v>
+      </c>
+      <c r="E190">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F190">
+        <v>47.067</v>
+      </c>
+      <c r="G190">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>62.6</v>
+      </c>
+      <c r="K190">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D191">
+        <v>229469.887216081</v>
+      </c>
+      <c r="E191">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F191">
+        <v>47.067</v>
+      </c>
+      <c r="G191">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>62.6</v>
+      </c>
+      <c r="K191">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D192">
+        <v>226934.62397268199</v>
+      </c>
+      <c r="E192">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F192">
+        <v>47.067</v>
+      </c>
+      <c r="G192">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>62.6</v>
+      </c>
+      <c r="K192">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D193">
+        <v>222709.95958877599</v>
+      </c>
+      <c r="E193">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F193">
+        <v>47.067</v>
+      </c>
+      <c r="G193">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>62.6</v>
+      </c>
+      <c r="K193">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D194">
+        <v>228091.525454449</v>
+      </c>
+      <c r="E194">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F194">
+        <v>47.067</v>
+      </c>
+      <c r="G194">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>62.6</v>
+      </c>
+      <c r="K194">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D195">
+        <v>213037.00075105301</v>
+      </c>
+      <c r="E195">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F195">
+        <v>47.067</v>
+      </c>
+      <c r="G195">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>62.6</v>
+      </c>
+      <c r="K195">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D196">
+        <v>222136.93189119</v>
+      </c>
+      <c r="E196">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F196">
+        <v>47.067</v>
+      </c>
+      <c r="G196">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>62.6</v>
+      </c>
+      <c r="K196">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D197">
+        <v>228076.20001209399</v>
+      </c>
+      <c r="E197">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F197">
+        <v>47.067</v>
+      </c>
+      <c r="G197">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>62.6</v>
+      </c>
+      <c r="K197">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D198">
+        <v>226687.27034092799</v>
+      </c>
+      <c r="E198">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F198">
+        <v>47.067</v>
+      </c>
+      <c r="G198">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>62.6</v>
+      </c>
+      <c r="K198">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D199">
+        <v>216749.679547318</v>
+      </c>
+      <c r="E199">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F199">
+        <v>47.067</v>
+      </c>
+      <c r="G199">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>62.6</v>
+      </c>
+      <c r="K199">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>101.264518780559</v>
+      </c>
+      <c r="D200">
+        <v>224407.19128211599</v>
+      </c>
+      <c r="E200">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F200">
+        <v>47.067</v>
+      </c>
+      <c r="G200">
+        <v>46.015843315738003</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>62.6</v>
+      </c>
+      <c r="K200">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>82.030779780082895</v>
+      </c>
+      <c r="D201">
+        <v>172708.18292337601</v>
+      </c>
+      <c r="E201">
+        <v>72.983999999999995</v>
+      </c>
+      <c r="F201">
+        <v>47.067</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>62.6</v>
+      </c>
+      <c r="K201">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>123.955785457369</v>
       </c>
       <c r="D2">

--- a/results/robust_recourse_iterative/zero_factor.xlsx
+++ b/results/robust_recourse_iterative/zero_factor.xlsx
@@ -2482,7 +2482,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2740,7 @@
         <v>5scen</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:L17" si="0">CONCATENATE(E18,"scen")</f>
+        <f t="shared" ref="E17:J17" si="0">CONCATENATE(E18,"scen")</f>
         <v>10scen</v>
       </c>
       <c r="F17" t="str">
@@ -2806,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:L19" ca="1" si="1">COUNTIF(INDIRECT(TEXT(E17,"")&amp;"!B2:B201"),"&gt;0")</f>
+        <f t="shared" ref="E19:J19" ca="1" si="1">COUNTIF(INDIRECT(TEXT(E17,"")&amp;"!B2:B201"),"&gt;0")</f>
         <v>3</v>
       </c>
       <c r="F19" s="1">
@@ -2841,7 +2841,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:L20" ca="1" si="2">SUMIF(INDIRECT(TEXT(D17,"")&amp;"!B2:B201"),"&gt;0")</f>
+        <f t="shared" ref="D20:J20" ca="1" si="2">SUMIF(INDIRECT(TEXT(D17,"")&amp;"!B2:B201"),"&gt;0")</f>
         <v>27</v>
       </c>
       <c r="E20" s="1">
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="C21:L25" ca="1" si="3">INDIRECT(""&amp;D$17&amp;"!"&amp;$A21)</f>
+        <f t="shared" ref="C21:J25" ca="1" si="3">INDIRECT(""&amp;D$17&amp;"!"&amp;$A21)</f>
         <v>0</v>
       </c>
       <c r="E21" s="2">
